--- a/temp/auditoria.xlsx
+++ b/temp/auditoria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -37,76 +37,109 @@
     <t>version</t>
   </si>
   <si>
+    <t>2024-06-18 21:17:00</t>
+  </si>
+  <si>
+    <t>2024-06-18 21:16:51</t>
+  </si>
+  <si>
+    <t>2024-06-18 20:54:10</t>
+  </si>
+  <si>
+    <t>2024-06-18 20:39:22</t>
+  </si>
+  <si>
+    <t>2024-06-18 19:42:08</t>
+  </si>
+  <si>
+    <t>2024-06-18 19:42:00</t>
+  </si>
+  <si>
+    <t>2024-06-17 21:10:51</t>
+  </si>
+  <si>
+    <t>2024-06-17 21:10:43</t>
+  </si>
+  <si>
+    <t>2024-06-17 21:10:37</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:38:45</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:38:40</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:35:41</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:35:31</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:35:15</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:34:49</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:28:12</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:27:19</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:26:24</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:23:14</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:22:11</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:13:33</t>
+  </si>
+  <si>
+    <t>2024-06-17 09:06:39</t>
+  </si>
+  <si>
+    <t>2024-06-17 08:58:41</t>
+  </si>
+  <si>
     <t>2024-06-17 08:51:48</t>
   </si>
   <si>
-    <t>2024-06-17 08:58:41</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:06:39</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:13:33</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:22:11</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:23:14</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:26:24</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:27:19</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:28:12</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:34:49</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:35:15</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:35:31</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:35:41</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:38:40</t>
-  </si>
-  <si>
-    <t>2024-06-17 09:38:45</t>
-  </si>
-  <si>
-    <t>2024-06-17 21:10:37</t>
-  </si>
-  <si>
-    <t>2024-06-17 21:10:43</t>
-  </si>
-  <si>
-    <t>2024-06-17 21:10:51</t>
+    <t>Renombró CONTABILIDAD2 a Contabilidad</t>
+  </si>
+  <si>
+    <t>Renombró Contabilidad a CONTABILIDAD2</t>
+  </si>
+  <si>
+    <t>auditoria_13.pdf</t>
+  </si>
+  <si>
+    <t>Eliminó Archivo PPTEMA1.pdf</t>
+  </si>
+  <si>
+    <t>PPTEMA1.pdf</t>
+  </si>
+  <si>
+    <t>Eliminó Carpeta Contabilidad/Nueva Carpeta</t>
+  </si>
+  <si>
+    <t>Eliminó Carpeta Contabilidad/3</t>
   </si>
   <si>
     <t>auditoria.pdf</t>
   </si>
   <si>
+    <t>Eliminó Archivo auditoria.pdf</t>
+  </si>
+  <si>
+    <t>Creó Carpeta Nueva Carpeta</t>
+  </si>
+  <si>
     <t>Renombró Archivo Contabilidad/2 a 3</t>
-  </si>
-  <si>
-    <t>Creó Carpeta Nueva Carpeta</t>
-  </si>
-  <si>
-    <t>Eliminó Archivo auditoria.pdf</t>
-  </si>
-  <si>
-    <t>Eliminó Carpeta Contabilidad/3</t>
-  </si>
-  <si>
-    <t>Eliminó Carpeta Contabilidad/Nueva Carpeta</t>
   </si>
   <si>
     <t>admin</t>
@@ -470,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,16 +534,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -518,16 +551,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -535,16 +568,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -552,16 +585,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -569,16 +602,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -586,16 +622,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -603,16 +639,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -620,16 +656,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -637,16 +673,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -654,16 +690,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -671,16 +710,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -688,16 +727,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -705,19 +747,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -725,16 +764,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -742,19 +781,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -762,16 +798,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -779,16 +815,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -796,18 +832,120 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
